--- a/QUANGHANH2/excel/CDVT/download/tieu-hao-vat-tu-tong-hop-download.xlsx
+++ b/QUANGHANH2/excel/CDVT/download/tieu-hao-vat-tu-tong-hop-download.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Documents\GitHub\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\CDVT\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Mã vật tư</t>
   </si>
@@ -35,10 +35,13 @@
     <t>Số lượng cấp</t>
   </si>
   <si>
+    <t>Số lượng thực lĩnh</t>
+  </si>
+  <si>
     <t>Đơn vị</t>
   </si>
   <si>
-    <t>Sử dụng</t>
+    <t xml:space="preserve">Sử dụng </t>
   </si>
   <si>
     <t>Thu hồi</t>
@@ -53,10 +56,43 @@
     <t>Cái</t>
   </si>
   <si>
-    <t>AC0040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ắc cần gầu F 130  MX ZX 670</t>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>Át tô mát 800A, ABL 803 C</t>
+  </si>
+  <si>
+    <t>AC0009</t>
+  </si>
+  <si>
+    <t>Ắc + bạt xích</t>
+  </si>
+  <si>
+    <t>Bộ</t>
+  </si>
+  <si>
+    <t>AC0029</t>
+  </si>
+  <si>
+    <t>Ắc quy Tia sáng 12V-150AH</t>
+  </si>
+  <si>
+    <t>Bình</t>
+  </si>
+  <si>
+    <t>A0007</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Âm ly PARAMAX999XP</t>
+  </si>
+  <si>
+    <t>AB001</t>
+  </si>
+  <si>
+    <t>Áo bông</t>
   </si>
 </sst>
 </file>
@@ -384,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -395,7 +431,7 @@
     <col min="1" max="1" width="19.3984375" customWidth="1"/>
     <col min="2" max="2" width="28.53125" customWidth="1"/>
     <col min="3" max="3" width="20.796875" customWidth="1"/>
-    <col min="4" max="4" width="17.1328125" customWidth="1"/>
+    <col min="4" max="4" width="21.46484375" customWidth="1"/>
     <col min="5" max="5" width="14.06640625" customWidth="1"/>
     <col min="6" max="6" width="14.3984375" customWidth="1"/>
   </cols>
@@ -419,46 +455,169 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0">
-        <v>67</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="0">
+        <v>23</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0">
+        <v>99</v>
+      </c>
+      <c r="D3" s="0">
+        <v>25</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="0">
-        <v>89</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0">
+        <v>32</v>
+      </c>
+      <c r="D4" s="0">
+        <v>32</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0">
+        <v>21</v>
+      </c>
+      <c r="D5" s="0">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0">
-        <v>0</v>
+      <c r="C6" s="0">
+        <v>12</v>
+      </c>
+      <c r="D6" s="0">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0">
+        <v>2</v>
+      </c>
+      <c r="G6" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="0">
+        <v>34</v>
+      </c>
+      <c r="G8" s="0">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
